--- a/examples/web-stuff/artifact/script/web2ws.xlsx
+++ b/examples/web-stuff/artifact/script/web2ws.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22180" tabRatio="500" activeTab="1"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="22180" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -20,9 +20,9 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -33,7 +33,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -42,9 +42,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$141</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$9</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="9">
   <si>
     <t>target</t>
   </si>
@@ -1911,18 +1911,45 @@
   <si>
     <t>Edit profile | Unsplash</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2119,8 +2146,109 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2325,8 +2453,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2462,320 +2743,694 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="48">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="12" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="10" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="22" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="12" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="13" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="51">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="42">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="6" numFmtId="49" xfId="42">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="20% - Accent2" xfId="41" builtinId="34"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="16"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="17"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="18"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="19"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="21"/>
+    <cellStyle builtinId="27" name="Bad" xfId="22"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="23"/>
+    <cellStyle builtinId="25" name="Total" xfId="24"/>
+    <cellStyle builtinId="21" name="Output" xfId="25"/>
+    <cellStyle builtinId="4" name="Currency" xfId="26"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="27"/>
+    <cellStyle builtinId="10" name="Note" xfId="28"/>
+    <cellStyle builtinId="20" name="Input" xfId="29"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="30"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="31"/>
+    <cellStyle builtinId="26" name="Good" xfId="32"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="33"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="34"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="35"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="36"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="37"/>
+    <cellStyle builtinId="15" name="Title" xfId="38"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="39"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="40"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="41"/>
+    <cellStyle builtinId="8" name="Link" xfId="42"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
+    <cellStyle builtinId="3" name="Comma" xfId="44"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
+    <cellStyle builtinId="5" name="Percent" xfId="47"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2809,7 +3464,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="00F8F7F9"/>
@@ -2831,10 +3486,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2998,21 +3653,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3029,7 +3684,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3082,20 +3737,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AE141"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33333333333333" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3222,7 +3877,7 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>617</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -3285,7 +3940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3371,7 +4026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3454,7 +4109,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3516,7 +4171,7 @@
         <v>131</v>
       </c>
       <c r="AB5" t="s">
-        <v>132</v>
+        <v>623</v>
       </c>
       <c r="AC5" t="s">
         <v>133</v>
@@ -3528,7 +4183,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3554,7 +4209,7 @@
         <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>618</v>
       </c>
       <c r="L6" t="s">
         <v>144</v>
@@ -3587,7 +4242,7 @@
         <v>153</v>
       </c>
       <c r="AB6" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="AC6" t="s">
         <v>155</v>
@@ -3599,7 +4254,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3616,7 +4271,7 @@
         <v>161</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
         <v>36</v>
@@ -3649,7 +4304,7 @@
         <v>170</v>
       </c>
       <c r="AB7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="AC7" t="s">
         <v>172</v>
@@ -3661,7 +4316,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3677,6 +4332,9 @@
       <c r="I8" t="s">
         <v>178</v>
       </c>
+      <c r="K8" t="s">
+        <v>162</v>
+      </c>
       <c r="L8" t="s">
         <v>179</v>
       </c>
@@ -3705,7 +4363,7 @@
         <v>187</v>
       </c>
       <c r="AB8" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="AC8" t="s">
         <v>189</v>
@@ -3717,7 +4375,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3758,7 +4416,7 @@
         <v>203</v>
       </c>
       <c r="AB9" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AC9" t="s">
         <v>205</v>
@@ -3767,7 +4425,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3778,7 +4436,7 @@
         <v>207</v>
       </c>
       <c r="I10" t="s">
-        <v>208</v>
+        <v>615</v>
       </c>
       <c r="L10" t="s">
         <v>209</v>
@@ -3801,6 +4459,9 @@
       <c r="Z10" t="s">
         <v>215</v>
       </c>
+      <c r="AB10" t="s">
+        <v>204</v>
+      </c>
       <c r="AC10" t="s">
         <v>216</v>
       </c>
@@ -3808,7 +4469,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3819,7 +4480,7 @@
         <v>219</v>
       </c>
       <c r="I11" t="s">
-        <v>220</v>
+        <v>616</v>
       </c>
       <c r="L11" t="s">
         <v>221</v>
@@ -3846,7 +4507,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3857,7 +4518,7 @@
         <v>230</v>
       </c>
       <c r="I12" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="L12" t="s">
         <v>232</v>
@@ -3884,7 +4545,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3895,7 +4556,7 @@
         <v>240</v>
       </c>
       <c r="I13" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="L13" t="s">
         <v>242</v>
@@ -3907,7 +4568,7 @@
         <v>244</v>
       </c>
       <c r="S13" t="s">
-        <v>245</v>
+        <v>619</v>
       </c>
       <c r="Z13" t="s">
         <v>246</v>
@@ -3919,7 +4580,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3930,7 +4591,7 @@
         <v>250</v>
       </c>
       <c r="I14" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="L14" t="s">
         <v>252</v>
@@ -3942,7 +4603,7 @@
         <v>254</v>
       </c>
       <c r="S14" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="Z14" t="s">
         <v>256</v>
@@ -3954,7 +4615,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3964,6 +4625,9 @@
       <c r="H15" t="s">
         <v>260</v>
       </c>
+      <c r="I15" t="s">
+        <v>241</v>
+      </c>
       <c r="L15" t="s">
         <v>261</v>
       </c>
@@ -3974,10 +4638,10 @@
         <v>263</v>
       </c>
       <c r="S15" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="Z15" t="s">
-        <v>265</v>
+        <v>620</v>
       </c>
       <c r="AC15" t="s">
         <v>266</v>
@@ -3986,7 +4650,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3996,6 +4660,9 @@
       <c r="H16" t="s">
         <v>269</v>
       </c>
+      <c r="I16" t="s">
+        <v>251</v>
+      </c>
       <c r="L16" t="s">
         <v>270</v>
       </c>
@@ -4006,10 +4673,10 @@
         <v>272</v>
       </c>
       <c r="S16" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="Z16" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AC16" t="s">
         <v>275</v>
@@ -4018,7 +4685,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4034,8 +4701,11 @@
       <c r="N17" t="s">
         <v>280</v>
       </c>
+      <c r="S17" t="s">
+        <v>273</v>
+      </c>
       <c r="Z17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AC17" t="s">
         <v>282</v>
@@ -4044,7 +4714,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4061,13 +4731,13 @@
         <v>287</v>
       </c>
       <c r="Z18" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AE18" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4081,13 +4751,13 @@
         <v>292</v>
       </c>
       <c r="Z19" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AE19" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4101,13 +4771,13 @@
         <v>297</v>
       </c>
       <c r="Z20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AE20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4121,13 +4791,13 @@
         <v>302</v>
       </c>
       <c r="Z21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AE21" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4141,13 +4811,13 @@
         <v>307</v>
       </c>
       <c r="Z22" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AE22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4161,13 +4831,13 @@
         <v>312</v>
       </c>
       <c r="Z23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AE23" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4181,13 +4851,13 @@
         <v>317</v>
       </c>
       <c r="Z24" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AE24" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4201,13 +4871,13 @@
         <v>322</v>
       </c>
       <c r="Z25" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AE25" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4221,13 +4891,13 @@
         <v>327</v>
       </c>
       <c r="Z26" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AE26" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4241,13 +4911,13 @@
         <v>332</v>
       </c>
       <c r="Z27" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AE27" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4261,10 +4931,10 @@
         <v>337</v>
       </c>
       <c r="Z28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4278,10 +4948,10 @@
         <v>341</v>
       </c>
       <c r="Z29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4295,10 +4965,10 @@
         <v>345</v>
       </c>
       <c r="Z30" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4309,10 +4979,10 @@
         <v>348</v>
       </c>
       <c r="Z31" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="6:26">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="F32" t="s">
         <v>350</v>
       </c>
@@ -4320,10 +4990,10 @@
         <v>351</v>
       </c>
       <c r="Z32" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="33" spans="6:26">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="F33" t="s">
         <v>353</v>
       </c>
@@ -4331,10 +5001,10 @@
         <v>354</v>
       </c>
       <c r="Z33" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="34" spans="6:26">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="F34" t="s">
         <v>356</v>
       </c>
@@ -4342,10 +5012,10 @@
         <v>357</v>
       </c>
       <c r="Z34" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="35" spans="6:26">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="F35" t="s">
         <v>359</v>
       </c>
@@ -4353,10 +5023,10 @@
         <v>360</v>
       </c>
       <c r="Z35" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="36" spans="6:26">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="F36" t="s">
         <v>362</v>
       </c>
@@ -4364,10 +5034,10 @@
         <v>363</v>
       </c>
       <c r="Z36" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" spans="6:26">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="F37" t="s">
         <v>365</v>
       </c>
@@ -4375,10 +5045,10 @@
         <v>366</v>
       </c>
       <c r="Z37" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="38" spans="6:26">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="F38" t="s">
         <v>368</v>
       </c>
@@ -4386,10 +5056,10 @@
         <v>369</v>
       </c>
       <c r="Z38" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="6:26">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="F39" t="s">
         <v>371</v>
       </c>
@@ -4397,731 +5067,746 @@
         <v>372</v>
       </c>
       <c r="Z39" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="40" spans="8:26">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="H40" t="s">
         <v>374</v>
       </c>
       <c r="Z40" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="41" spans="8:26">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="H41" t="s">
         <v>376</v>
       </c>
       <c r="Z41" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="42" spans="8:26">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="H42" t="s">
         <v>378</v>
       </c>
       <c r="Z42" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="8:26">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="H43" t="s">
         <v>380</v>
       </c>
       <c r="Z43" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="44" spans="8:26">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="H44" t="s">
         <v>382</v>
       </c>
       <c r="Z44" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="45" spans="8:26">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="H45" t="s">
         <v>384</v>
       </c>
       <c r="Z45" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="46" spans="8:26">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="H46" t="s">
         <v>386</v>
       </c>
       <c r="Z46" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="47" spans="8:26">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="H47" t="s">
         <v>388</v>
       </c>
       <c r="Z47" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="48" spans="8:26">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="H48" t="s">
         <v>390</v>
       </c>
       <c r="Z48" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="49" spans="8:26">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="H49" t="s">
         <v>392</v>
       </c>
       <c r="Z49" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="50" spans="8:26">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="H50" t="s">
         <v>394</v>
       </c>
       <c r="Z50" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="51" spans="8:26">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="H51" t="s">
         <v>396</v>
       </c>
       <c r="Z51" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="52" spans="8:26">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="H52" t="s">
         <v>398</v>
       </c>
       <c r="Z52" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="53" spans="8:26">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="H53" t="s">
         <v>400</v>
       </c>
       <c r="Z53" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="8:26">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="H54" t="s">
         <v>402</v>
       </c>
       <c r="Z54" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="55" spans="8:26">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="H55" t="s">
         <v>404</v>
       </c>
       <c r="Z55" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="56" spans="8:26">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="H56" t="s">
         <v>406</v>
       </c>
       <c r="Z56" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="57" spans="8:26">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="H57" t="s">
         <v>408</v>
       </c>
       <c r="Z57" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="58" spans="8:26">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="H58" t="s">
         <v>410</v>
       </c>
       <c r="Z58" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="59" spans="8:26">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="H59" t="s">
         <v>412</v>
       </c>
       <c r="Z59" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="60" spans="8:26">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="H60" t="s">
         <v>414</v>
       </c>
       <c r="Z60" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="61" spans="8:26">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="H61" t="s">
         <v>416</v>
       </c>
       <c r="Z61" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="62" spans="8:26">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="H62" t="s">
         <v>418</v>
       </c>
       <c r="Z62" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="63" spans="8:26">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="H63" t="s">
         <v>420</v>
       </c>
       <c r="Z63" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="64" spans="8:26">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="H64" t="s">
         <v>422</v>
       </c>
       <c r="Z64" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="8:26">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="H65" t="s">
         <v>424</v>
       </c>
       <c r="Z65" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="66" spans="8:26">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="H66" t="s">
         <v>426</v>
       </c>
       <c r="Z66" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="67" spans="8:26">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="H67" t="s">
         <v>428</v>
       </c>
       <c r="Z67" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="68" spans="8:26">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="H68" t="s">
         <v>430</v>
       </c>
       <c r="Z68" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="69" spans="8:26">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="H69" t="s">
         <v>432</v>
       </c>
       <c r="Z69" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="70" spans="8:26">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="H70" t="s">
         <v>434</v>
       </c>
       <c r="Z70" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="71" spans="8:26">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="H71" t="s">
         <v>436</v>
       </c>
       <c r="Z71" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="72" spans="8:26">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="H72" t="s">
         <v>438</v>
       </c>
       <c r="Z72" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="73" spans="8:26">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="H73" t="s">
         <v>440</v>
       </c>
       <c r="Z73" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="74" spans="8:26">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="H74" t="s">
         <v>442</v>
       </c>
       <c r="Z74" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="75" spans="8:26">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="H75" t="s">
         <v>444</v>
       </c>
       <c r="Z75" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="76" spans="8:26">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="H76" t="s">
         <v>446</v>
       </c>
       <c r="Z76" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="77" spans="8:26">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="H77" t="s">
         <v>448</v>
       </c>
       <c r="Z77" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="78" spans="8:26">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="H78" t="s">
         <v>450</v>
       </c>
       <c r="Z78" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="79" spans="8:26">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="H79" t="s">
         <v>452</v>
       </c>
       <c r="Z79" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="80" spans="8:26">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>454</v>
       </c>
       <c r="Z80" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="81" spans="8:26">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>456</v>
       </c>
       <c r="Z81" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="82" spans="8:26">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>458</v>
       </c>
       <c r="Z82" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="83" spans="8:26">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>460</v>
       </c>
       <c r="Z83" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="84" spans="8:26">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>462</v>
       </c>
       <c r="Z84" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="85" spans="8:26">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>464</v>
       </c>
       <c r="Z85" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="86" spans="8:26">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>466</v>
       </c>
       <c r="Z86" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="87" spans="8:26">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>468</v>
       </c>
       <c r="Z87" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="88" spans="8:26">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>470</v>
       </c>
       <c r="Z88" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="89" spans="8:26">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>472</v>
       </c>
       <c r="Z89" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="90" spans="8:26">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>474</v>
       </c>
       <c r="Z90" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="91" spans="8:26">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>476</v>
       </c>
       <c r="Z91" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="92" spans="8:26">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>478</v>
       </c>
       <c r="Z92" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="93" spans="8:26">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>480</v>
       </c>
       <c r="Z93" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="94" spans="8:26">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>482</v>
       </c>
       <c r="Z94" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="95" spans="8:26">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>484</v>
       </c>
       <c r="Z95" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="96" spans="8:26">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>486</v>
       </c>
       <c r="Z96" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="97" spans="8:26">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>488</v>
       </c>
       <c r="Z97" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="98" spans="8:26">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>490</v>
       </c>
       <c r="Z98" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Z99" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="99" spans="26:26">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="100" spans="26:26">
-      <c r="Z100" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="101" spans="26:26">
-      <c r="Z101" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="102" spans="26:26">
-      <c r="Z102" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="103" spans="26:26">
-      <c r="Z103" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="104" spans="26:26">
-      <c r="Z104" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="105" spans="26:26">
-      <c r="Z105" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="106" spans="26:26">
-      <c r="Z106" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="107" spans="26:26">
-      <c r="Z107" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="26:26">
-      <c r="Z108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="Z110" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="109" spans="26:26">
-      <c r="Z109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="110" spans="26:26">
-      <c r="Z110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="111" spans="26:26">
-      <c r="Z111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="112" spans="26:26">
-      <c r="Z112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="26:26">
-      <c r="Z113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="114" spans="26:26">
-      <c r="Z114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="115" spans="26:26">
-      <c r="Z115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="116" spans="26:26">
-      <c r="Z116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="117" spans="26:26">
-      <c r="Z117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="118" spans="26:26">
-      <c r="Z118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="119" spans="26:26">
-      <c r="Z119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="120" spans="26:26">
-      <c r="Z120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="121" spans="26:26">
-      <c r="Z121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="122" spans="26:26">
-      <c r="Z122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="123" spans="26:26">
-      <c r="Z123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="124" spans="26:26">
-      <c r="Z124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="125" spans="26:26">
-      <c r="Z125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="126" spans="26:26">
-      <c r="Z126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="127" spans="26:26">
-      <c r="Z127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="128" spans="26:26">
-      <c r="Z128" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="129" spans="26:26">
-      <c r="Z129" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="130" spans="26:26">
-      <c r="Z130" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="131" spans="26:26">
-      <c r="Z131" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="132" spans="26:26">
-      <c r="Z132" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="133" spans="26:26">
-      <c r="Z133" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="134" spans="26:26">
-      <c r="Z134" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="135" spans="26:26">
-      <c r="Z135" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="136" spans="26:26">
-      <c r="Z136" t="s">
+    <row r="138">
+      <c r="Z138" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="137" spans="26:26">
-      <c r="Z137" t="s">
+    <row r="139">
+      <c r="Z139" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="138" spans="26:26">
-      <c r="Z138" t="s">
+    <row r="140">
+      <c r="Z140" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="139" spans="26:26">
-      <c r="Z139" t="s">
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="140" spans="26:26">
-      <c r="Z140" t="s">
+    <row r="143">
+      <c r="Z143" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="141" spans="26:26">
-      <c r="Z141" t="s">
+    <row r="144">
+      <c r="Z144" t="s">
         <v>534</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O298"/>
+  <dimension ref="A1:P298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" pane="bottomLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.1666666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.8333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="53.5" style="5" customWidth="1"/>
-    <col min="6" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1"/>
-    <col min="15" max="15" width="49.8333333333333" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.8333333333333" style="10"/>
+    <col min="1" max="1" customWidth="true" style="2" width="19.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="45.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.1666666666667" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="5" width="35.8333333333333" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="5" width="53.5" collapsed="false"/>
+    <col min="6" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.66666666666667" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.8333333333333" collapsed="false"/>
+    <col min="16" max="16384" style="10" width="10.8333333333333" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="1" spans="1:15">
       <c r="A1" s="11" t="s">
         <v>535</v>
       </c>
@@ -5152,7 +5837,7 @@
       <c r="N1" s="23"/>
       <c r="O1" s="33"/>
     </row>
-    <row r="2" ht="93" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="93" r="2" spans="1:15">
       <c r="A2" s="13" t="s">
         <v>542</v>
       </c>
@@ -5173,7 +5858,7 @@
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
     </row>
-    <row r="3" ht="10" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="10" r="3" spans="1:15">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -5190,7 +5875,7 @@
       <c r="N3" s="26"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="19" t="s">
         <v>544</v>
       </c>
@@ -5235,7 +5920,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="5" spans="1:15">
       <c r="A5" s="15" t="s">
         <v>557</v>
       </c>
@@ -5262,7 +5947,7 @@
       <c r="N5" s="26"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" ht="29" spans="1:15">
+    <row ht="29" r="6" spans="1:15">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
         <v>560</v>
@@ -5287,7 +5972,7 @@
       <c r="N6" s="26"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" ht="29" spans="1:15">
+    <row ht="29" r="7" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>562</v>
@@ -5314,7 +5999,7 @@
       <c r="N7" s="26"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="8" spans="1:15">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>565</v>
@@ -5339,7 +6024,7 @@
       <c r="N8" s="26"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="9" spans="1:15">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
         <v>567</v>
@@ -5366,7 +6051,7 @@
       <c r="N9" s="26"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="10" spans="1:15">
       <c r="A10" s="15" t="s">
         <v>570</v>
       </c>
@@ -5391,7 +6076,7 @@
       <c r="N10" s="26"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="20" t="s">
@@ -5414,7 +6099,7 @@
       <c r="N11" s="26"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="12" spans="1:15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="20" t="s">
@@ -5439,7 +6124,7 @@
       <c r="N12" s="26"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" ht="80" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="80" r="13" spans="1:15">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>574</v>
@@ -5464,7 +6149,7 @@
       <c r="N13" s="26"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="14" spans="1:15">
       <c r="A14" s="15"/>
       <c r="B14" s="16" t="s">
         <v>576</v>
@@ -5489,7 +6174,8 @@
       <c r="N14" s="26"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" ht="23" customHeight="1" spans="2:15">
+    <row customHeight="1" ht="23" r="15" spans="2:15">
+      <c r="A15"/>
       <c r="B15" s="16" t="s">
         <v>578</v>
       </c>
@@ -5515,7 +6201,7 @@
       <c r="N15" s="26"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="16" spans="1:15">
       <c r="A16" s="15" t="s">
         <v>581</v>
       </c>
@@ -5542,7 +6228,7 @@
       <c r="N16" s="26"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="17" spans="1:15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>584</v>
@@ -5569,7 +6255,7 @@
       <c r="N17" s="26"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="18" spans="1:15">
       <c r="A18" s="15"/>
       <c r="B18" s="16" t="s">
         <v>587</v>
@@ -5596,7 +6282,7 @@
       <c r="N18" s="26"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="19" spans="1:15">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
         <v>589</v>
@@ -5621,7 +6307,7 @@
       <c r="N19" s="26"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="20" spans="1:15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="20" t="s">
@@ -5648,7 +6334,7 @@
       <c r="N20" s="26"/>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="21" spans="1:15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="20" t="s">
@@ -5675,7 +6361,7 @@
       <c r="N21" s="26"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="22" spans="1:15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="20" t="s">
@@ -5700,7 +6386,7 @@
       <c r="N22" s="26"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" ht="92" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="92" r="23" spans="1:15">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
         <v>597</v>
@@ -5727,7 +6413,7 @@
       <c r="N23" s="26"/>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="24" spans="1:15">
       <c r="A24" s="15" t="s">
         <v>600</v>
       </c>
@@ -5756,7 +6442,7 @@
       <c r="N24" s="26"/>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="25" spans="1:15">
       <c r="A25" s="10"/>
       <c r="B25" s="16"/>
       <c r="C25" s="20" t="s">
@@ -5781,7 +6467,7 @@
       <c r="N25" s="26"/>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="26" spans="1:15">
       <c r="A26" s="15"/>
       <c r="B26" s="22" t="s">
         <v>606</v>
@@ -5808,7 +6494,7 @@
       <c r="N26" s="26"/>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="27" spans="1:15">
       <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
         <v>608</v>
@@ -5835,7 +6521,7 @@
       <c r="N27" s="26"/>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="28" spans="1:15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="20" t="s">
@@ -5860,7 +6546,7 @@
       <c r="N28" s="26"/>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="29" spans="1:15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="20" t="s">
@@ -5885,7 +6571,7 @@
       <c r="N29" s="26"/>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="30" spans="1:15">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>610</v>
@@ -5912,7 +6598,7 @@
       <c r="N30" s="26"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="31" spans="1:15">
       <c r="A31" s="15"/>
       <c r="B31" s="16" t="s">
         <v>613</v>
@@ -5939,7 +6625,7 @@
       <c r="N31" s="26"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="32" spans="1:15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="20"/>
@@ -5956,7 +6642,7 @@
       <c r="N32" s="26"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="33" spans="1:15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="20"/>
@@ -5973,7 +6659,7 @@
       <c r="N33" s="26"/>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="34" spans="1:15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="20"/>
@@ -5990,7 +6676,7 @@
       <c r="N34" s="26"/>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="35" spans="1:15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="20"/>
@@ -6007,7 +6693,7 @@
       <c r="N35" s="26"/>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="36" spans="1:15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="20"/>
@@ -6024,7 +6710,7 @@
       <c r="N36" s="26"/>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="20"/>
@@ -6041,7 +6727,7 @@
       <c r="N37" s="26"/>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="38" spans="1:15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="20"/>
@@ -6058,7 +6744,7 @@
       <c r="N38" s="26"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="39" spans="1:15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="20"/>
@@ -6075,7 +6761,7 @@
       <c r="N39" s="26"/>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="40" spans="1:15">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="20"/>
@@ -6092,7 +6778,7 @@
       <c r="N40" s="26"/>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="41" spans="1:15">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="20"/>
@@ -6109,7 +6795,7 @@
       <c r="N41" s="26"/>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="42" spans="1:15">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="20"/>
@@ -6126,7 +6812,7 @@
       <c r="N42" s="26"/>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="43" spans="1:15">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="20"/>
@@ -6143,7 +6829,7 @@
       <c r="N43" s="26"/>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="44" spans="1:15">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="20"/>
@@ -6160,7 +6846,7 @@
       <c r="N44" s="26"/>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="45" spans="1:15">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="20"/>
@@ -6177,7 +6863,7 @@
       <c r="N45" s="26"/>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="46" spans="1:15">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="20"/>
@@ -6194,7 +6880,7 @@
       <c r="N46" s="26"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="47" spans="1:15">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="20"/>
@@ -6211,7 +6897,7 @@
       <c r="N47" s="26"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="48" spans="1:15">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="20"/>
@@ -6228,7 +6914,7 @@
       <c r="N48" s="26"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="49" spans="1:15">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="20"/>
@@ -6245,7 +6931,7 @@
       <c r="N49" s="26"/>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="50" spans="1:15">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="20"/>
@@ -6262,7 +6948,7 @@
       <c r="N50" s="26"/>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="51" spans="1:15">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="20"/>
@@ -6279,7 +6965,7 @@
       <c r="N51" s="26"/>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="52" spans="1:15">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="20"/>
@@ -6296,7 +6982,7 @@
       <c r="N52" s="26"/>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="53" spans="1:15">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="20"/>
@@ -6313,7 +6999,7 @@
       <c r="N53" s="26"/>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="54" spans="1:15">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="20"/>
@@ -6330,7 +7016,7 @@
       <c r="N54" s="26"/>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="55" spans="1:15">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="20"/>
@@ -6347,7 +7033,7 @@
       <c r="N55" s="26"/>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="56" spans="1:15">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="20"/>
@@ -6364,7 +7050,7 @@
       <c r="N56" s="26"/>
       <c r="O56" s="18"/>
     </row>
-    <row r="57" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="57" spans="1:15">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="20"/>
@@ -6381,7 +7067,7 @@
       <c r="N57" s="26"/>
       <c r="O57" s="18"/>
     </row>
-    <row r="58" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="58" spans="1:15">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="20"/>
@@ -6398,7 +7084,7 @@
       <c r="N58" s="26"/>
       <c r="O58" s="18"/>
     </row>
-    <row r="59" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="59" spans="1:15">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="20"/>
@@ -6415,7 +7101,7 @@
       <c r="N59" s="26"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="60" spans="1:15">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="20"/>
@@ -6432,7 +7118,7 @@
       <c r="N60" s="26"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="61" spans="1:15">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="20"/>
@@ -6449,7 +7135,7 @@
       <c r="N61" s="26"/>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="62" spans="1:15">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="20"/>
@@ -6466,7 +7152,7 @@
       <c r="N62" s="26"/>
       <c r="O62" s="18"/>
     </row>
-    <row r="63" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="63" spans="1:15">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="20"/>
@@ -6483,7 +7169,7 @@
       <c r="N63" s="26"/>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="64" spans="1:15">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="20"/>
@@ -6500,7 +7186,7 @@
       <c r="N64" s="26"/>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="65" spans="1:15">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="20"/>
@@ -6517,7 +7203,7 @@
       <c r="N65" s="26"/>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="66" spans="1:15">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="20"/>
@@ -6534,7 +7220,7 @@
       <c r="N66" s="26"/>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="67" spans="1:15">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="20"/>
@@ -6551,7 +7237,7 @@
       <c r="N67" s="26"/>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="68" spans="1:15">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="20"/>
@@ -6568,7 +7254,7 @@
       <c r="N68" s="26"/>
       <c r="O68" s="18"/>
     </row>
-    <row r="69" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="69" spans="1:15">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="20"/>
@@ -6585,7 +7271,7 @@
       <c r="N69" s="26"/>
       <c r="O69" s="18"/>
     </row>
-    <row r="70" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="70" spans="1:15">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="20"/>
@@ -6602,7 +7288,7 @@
       <c r="N70" s="26"/>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="71" spans="1:15">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="20"/>
@@ -6619,7 +7305,7 @@
       <c r="N71" s="26"/>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="72" spans="1:15">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="20"/>
@@ -6636,7 +7322,7 @@
       <c r="N72" s="26"/>
       <c r="O72" s="18"/>
     </row>
-    <row r="73" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="73" spans="1:15">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="20"/>
@@ -6653,7 +7339,7 @@
       <c r="N73" s="26"/>
       <c r="O73" s="18"/>
     </row>
-    <row r="74" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="74" spans="1:15">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="20"/>
@@ -6670,7 +7356,7 @@
       <c r="N74" s="26"/>
       <c r="O74" s="18"/>
     </row>
-    <row r="75" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="75" spans="1:15">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="20"/>
@@ -6687,7 +7373,7 @@
       <c r="N75" s="26"/>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="76" spans="1:15">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="20"/>
@@ -6704,7 +7390,7 @@
       <c r="N76" s="26"/>
       <c r="O76" s="18"/>
     </row>
-    <row r="77" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="77" spans="1:15">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="20"/>
@@ -6721,7 +7407,7 @@
       <c r="N77" s="26"/>
       <c r="O77" s="18"/>
     </row>
-    <row r="78" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="78" spans="1:15">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="20"/>
@@ -6738,7 +7424,7 @@
       <c r="N78" s="26"/>
       <c r="O78" s="18"/>
     </row>
-    <row r="79" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="79" spans="1:15">
       <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="20"/>
@@ -6755,7 +7441,7 @@
       <c r="N79" s="26"/>
       <c r="O79" s="18"/>
     </row>
-    <row r="80" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="80" spans="1:15">
       <c r="A80" s="15"/>
       <c r="B80" s="16"/>
       <c r="C80" s="20"/>
@@ -6772,7 +7458,7 @@
       <c r="N80" s="26"/>
       <c r="O80" s="18"/>
     </row>
-    <row r="81" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="81" spans="1:15">
       <c r="A81" s="15"/>
       <c r="B81" s="16"/>
       <c r="C81" s="20"/>
@@ -6789,7 +7475,7 @@
       <c r="N81" s="26"/>
       <c r="O81" s="18"/>
     </row>
-    <row r="82" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="82" spans="1:15">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="20"/>
@@ -6806,7 +7492,7 @@
       <c r="N82" s="26"/>
       <c r="O82" s="18"/>
     </row>
-    <row r="83" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="83" spans="1:15">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="20"/>
@@ -6823,7 +7509,7 @@
       <c r="N83" s="26"/>
       <c r="O83" s="18"/>
     </row>
-    <row r="84" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="84" spans="1:15">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="20"/>
@@ -6840,7 +7526,7 @@
       <c r="N84" s="26"/>
       <c r="O84" s="18"/>
     </row>
-    <row r="85" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="85" spans="1:15">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="20"/>
@@ -6857,7 +7543,7 @@
       <c r="N85" s="26"/>
       <c r="O85" s="18"/>
     </row>
-    <row r="86" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="86" spans="1:15">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="20"/>
@@ -6874,7 +7560,7 @@
       <c r="N86" s="26"/>
       <c r="O86" s="18"/>
     </row>
-    <row r="87" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="87" spans="1:15">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="20"/>
@@ -6891,7 +7577,7 @@
       <c r="N87" s="26"/>
       <c r="O87" s="18"/>
     </row>
-    <row r="88" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="88" spans="1:15">
       <c r="A88" s="15"/>
       <c r="B88" s="16"/>
       <c r="C88" s="20"/>
@@ -6908,7 +7594,7 @@
       <c r="N88" s="26"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="89" spans="1:15">
       <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="20"/>
@@ -6925,7 +7611,7 @@
       <c r="N89" s="26"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="90" spans="1:15">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="20"/>
@@ -6942,7 +7628,7 @@
       <c r="N90" s="26"/>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="91" spans="1:15">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="20"/>
@@ -6959,7 +7645,7 @@
       <c r="N91" s="26"/>
       <c r="O91" s="18"/>
     </row>
-    <row r="92" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="92" spans="1:15">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="20"/>
@@ -6976,7 +7662,7 @@
       <c r="N92" s="26"/>
       <c r="O92" s="18"/>
     </row>
-    <row r="93" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="93" spans="1:15">
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="20"/>
@@ -6993,7 +7679,7 @@
       <c r="N93" s="26"/>
       <c r="O93" s="18"/>
     </row>
-    <row r="94" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="94" spans="1:15">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="20"/>
@@ -7010,7 +7696,7 @@
       <c r="N94" s="26"/>
       <c r="O94" s="18"/>
     </row>
-    <row r="95" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="95" spans="1:15">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="20"/>
@@ -7027,7 +7713,7 @@
       <c r="N95" s="26"/>
       <c r="O95" s="18"/>
     </row>
-    <row r="96" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="96" spans="1:15">
       <c r="A96" s="15"/>
       <c r="B96" s="16"/>
       <c r="C96" s="20"/>
@@ -7044,7 +7730,7 @@
       <c r="N96" s="26"/>
       <c r="O96" s="18"/>
     </row>
-    <row r="97" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="97" spans="1:15">
       <c r="A97" s="15"/>
       <c r="B97" s="16"/>
       <c r="C97" s="20"/>
@@ -7061,7 +7747,7 @@
       <c r="N97" s="26"/>
       <c r="O97" s="18"/>
     </row>
-    <row r="98" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="98" spans="1:15">
       <c r="A98" s="15"/>
       <c r="B98" s="16"/>
       <c r="C98" s="20"/>
@@ -7078,7 +7764,7 @@
       <c r="N98" s="26"/>
       <c r="O98" s="18"/>
     </row>
-    <row r="99" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="99" spans="1:15">
       <c r="A99" s="15"/>
       <c r="B99" s="16"/>
       <c r="C99" s="20"/>
@@ -7095,7 +7781,7 @@
       <c r="N99" s="26"/>
       <c r="O99" s="18"/>
     </row>
-    <row r="100" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="100" spans="1:15">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="20"/>
@@ -7112,7 +7798,7 @@
       <c r="N100" s="26"/>
       <c r="O100" s="18"/>
     </row>
-    <row r="101" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="101" spans="1:15">
       <c r="A101" s="15"/>
       <c r="B101" s="16"/>
       <c r="C101" s="20"/>
@@ -7129,7 +7815,7 @@
       <c r="N101" s="26"/>
       <c r="O101" s="18"/>
     </row>
-    <row r="102" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="102" spans="1:15">
       <c r="A102" s="15"/>
       <c r="B102" s="16"/>
       <c r="C102" s="20"/>
@@ -7146,7 +7832,7 @@
       <c r="N102" s="26"/>
       <c r="O102" s="18"/>
     </row>
-    <row r="103" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="103" spans="1:15">
       <c r="A103" s="15"/>
       <c r="B103" s="16"/>
       <c r="C103" s="20"/>
@@ -7163,7 +7849,7 @@
       <c r="N103" s="26"/>
       <c r="O103" s="18"/>
     </row>
-    <row r="104" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="104" spans="1:15">
       <c r="A104" s="15"/>
       <c r="B104" s="16"/>
       <c r="C104" s="20"/>
@@ -7180,7 +7866,7 @@
       <c r="N104" s="26"/>
       <c r="O104" s="18"/>
     </row>
-    <row r="105" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="105" spans="1:15">
       <c r="A105" s="15"/>
       <c r="B105" s="16"/>
       <c r="C105" s="20"/>
@@ -7197,7 +7883,7 @@
       <c r="N105" s="26"/>
       <c r="O105" s="18"/>
     </row>
-    <row r="106" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="106" spans="1:15">
       <c r="A106" s="15"/>
       <c r="B106" s="16"/>
       <c r="C106" s="20"/>
@@ -7214,7 +7900,7 @@
       <c r="N106" s="26"/>
       <c r="O106" s="18"/>
     </row>
-    <row r="107" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="107" spans="1:15">
       <c r="A107" s="15"/>
       <c r="B107" s="16"/>
       <c r="C107" s="20"/>
@@ -7231,7 +7917,7 @@
       <c r="N107" s="26"/>
       <c r="O107" s="18"/>
     </row>
-    <row r="108" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="108" spans="1:15">
       <c r="A108" s="15"/>
       <c r="B108" s="16"/>
       <c r="C108" s="20"/>
@@ -7248,7 +7934,7 @@
       <c r="N108" s="26"/>
       <c r="O108" s="18"/>
     </row>
-    <row r="109" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="109" spans="1:15">
       <c r="A109" s="15"/>
       <c r="B109" s="16"/>
       <c r="C109" s="20"/>
@@ -7265,7 +7951,7 @@
       <c r="N109" s="26"/>
       <c r="O109" s="18"/>
     </row>
-    <row r="110" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="110" spans="1:15">
       <c r="A110" s="15"/>
       <c r="B110" s="16"/>
       <c r="C110" s="20"/>
@@ -7282,7 +7968,7 @@
       <c r="N110" s="26"/>
       <c r="O110" s="18"/>
     </row>
-    <row r="111" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="111" spans="1:15">
       <c r="A111" s="15"/>
       <c r="B111" s="16"/>
       <c r="C111" s="20"/>
@@ -7299,7 +7985,7 @@
       <c r="N111" s="26"/>
       <c r="O111" s="18"/>
     </row>
-    <row r="112" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="112" spans="1:15">
       <c r="A112" s="15"/>
       <c r="B112" s="16"/>
       <c r="C112" s="20"/>
@@ -7316,7 +8002,7 @@
       <c r="N112" s="26"/>
       <c r="O112" s="18"/>
     </row>
-    <row r="113" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="113" spans="1:15">
       <c r="A113" s="15"/>
       <c r="B113" s="16"/>
       <c r="C113" s="20"/>
@@ -7333,7 +8019,7 @@
       <c r="N113" s="26"/>
       <c r="O113" s="18"/>
     </row>
-    <row r="114" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="114" spans="1:15">
       <c r="A114" s="15"/>
       <c r="B114" s="16"/>
       <c r="C114" s="20"/>
@@ -7350,7 +8036,7 @@
       <c r="N114" s="26"/>
       <c r="O114" s="18"/>
     </row>
-    <row r="115" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="115" spans="1:15">
       <c r="A115" s="15"/>
       <c r="B115" s="16"/>
       <c r="C115" s="20"/>
@@ -7367,7 +8053,7 @@
       <c r="N115" s="26"/>
       <c r="O115" s="18"/>
     </row>
-    <row r="116" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="116" spans="1:15">
       <c r="A116" s="15"/>
       <c r="B116" s="16"/>
       <c r="C116" s="20"/>
@@ -7384,7 +8070,7 @@
       <c r="N116" s="26"/>
       <c r="O116" s="18"/>
     </row>
-    <row r="117" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="117" spans="1:15">
       <c r="A117" s="15"/>
       <c r="B117" s="16"/>
       <c r="C117" s="20"/>
@@ -7401,7 +8087,7 @@
       <c r="N117" s="26"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="118" spans="1:15">
       <c r="A118" s="15"/>
       <c r="B118" s="16"/>
       <c r="C118" s="20"/>
@@ -7418,7 +8104,7 @@
       <c r="N118" s="26"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="119" spans="1:15">
       <c r="A119" s="15"/>
       <c r="B119" s="16"/>
       <c r="C119" s="20"/>
@@ -7435,7 +8121,7 @@
       <c r="N119" s="26"/>
       <c r="O119" s="18"/>
     </row>
-    <row r="120" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="120" spans="1:15">
       <c r="A120" s="15"/>
       <c r="B120" s="16"/>
       <c r="C120" s="20"/>
@@ -7452,7 +8138,7 @@
       <c r="N120" s="26"/>
       <c r="O120" s="18"/>
     </row>
-    <row r="121" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="121" spans="1:15">
       <c r="A121" s="15"/>
       <c r="B121" s="16"/>
       <c r="C121" s="20"/>
@@ -7469,7 +8155,7 @@
       <c r="N121" s="26"/>
       <c r="O121" s="18"/>
     </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="122" spans="1:15">
       <c r="A122" s="15"/>
       <c r="B122" s="16"/>
       <c r="C122" s="20"/>
@@ -7486,7 +8172,7 @@
       <c r="N122" s="26"/>
       <c r="O122" s="18"/>
     </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="123" spans="1:15">
       <c r="A123" s="15"/>
       <c r="B123" s="16"/>
       <c r="C123" s="20"/>
@@ -7503,7 +8189,7 @@
       <c r="N123" s="26"/>
       <c r="O123" s="18"/>
     </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="124" spans="1:15">
       <c r="A124" s="15"/>
       <c r="B124" s="16"/>
       <c r="C124" s="20"/>
@@ -7520,7 +8206,7 @@
       <c r="N124" s="26"/>
       <c r="O124" s="18"/>
     </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="125" spans="1:15">
       <c r="A125" s="15"/>
       <c r="B125" s="16"/>
       <c r="C125" s="20"/>
@@ -7537,7 +8223,7 @@
       <c r="N125" s="26"/>
       <c r="O125" s="18"/>
     </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="126" spans="1:15">
       <c r="A126" s="15"/>
       <c r="B126" s="16"/>
       <c r="C126" s="20"/>
@@ -7554,7 +8240,7 @@
       <c r="N126" s="26"/>
       <c r="O126" s="18"/>
     </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="127" spans="1:15">
       <c r="A127" s="15"/>
       <c r="B127" s="16"/>
       <c r="C127" s="20"/>
@@ -7571,7 +8257,7 @@
       <c r="N127" s="26"/>
       <c r="O127" s="18"/>
     </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="128" spans="1:15">
       <c r="A128" s="15"/>
       <c r="B128" s="16"/>
       <c r="C128" s="20"/>
@@ -7588,7 +8274,7 @@
       <c r="N128" s="26"/>
       <c r="O128" s="18"/>
     </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="129" spans="1:15">
       <c r="A129" s="15"/>
       <c r="B129" s="16"/>
       <c r="C129" s="20"/>
@@ -7605,7 +8291,7 @@
       <c r="N129" s="26"/>
       <c r="O129" s="18"/>
     </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="130" spans="1:15">
       <c r="A130" s="15"/>
       <c r="B130" s="16"/>
       <c r="C130" s="20"/>
@@ -7622,7 +8308,7 @@
       <c r="N130" s="26"/>
       <c r="O130" s="18"/>
     </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="131" spans="1:15">
       <c r="A131" s="15"/>
       <c r="B131" s="16"/>
       <c r="C131" s="20"/>
@@ -7639,7 +8325,7 @@
       <c r="N131" s="26"/>
       <c r="O131" s="18"/>
     </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="132" spans="1:15">
       <c r="A132" s="15"/>
       <c r="B132" s="16"/>
       <c r="C132" s="20"/>
@@ -7656,7 +8342,7 @@
       <c r="N132" s="26"/>
       <c r="O132" s="18"/>
     </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="133" spans="1:15">
       <c r="A133" s="15"/>
       <c r="B133" s="16"/>
       <c r="C133" s="20"/>
@@ -7673,7 +8359,7 @@
       <c r="N133" s="26"/>
       <c r="O133" s="18"/>
     </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="134" spans="1:15">
       <c r="A134" s="15"/>
       <c r="B134" s="16"/>
       <c r="C134" s="20"/>
@@ -7690,7 +8376,7 @@
       <c r="N134" s="26"/>
       <c r="O134" s="18"/>
     </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="135" spans="1:15">
       <c r="A135" s="15"/>
       <c r="B135" s="16"/>
       <c r="C135" s="20"/>
@@ -7707,7 +8393,7 @@
       <c r="N135" s="26"/>
       <c r="O135" s="18"/>
     </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="136" spans="1:15">
       <c r="A136" s="15"/>
       <c r="B136" s="16"/>
       <c r="C136" s="20"/>
@@ -7724,7 +8410,7 @@
       <c r="N136" s="26"/>
       <c r="O136" s="18"/>
     </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="137" spans="1:15">
       <c r="A137" s="15"/>
       <c r="B137" s="16"/>
       <c r="C137" s="20"/>
@@ -7741,7 +8427,7 @@
       <c r="N137" s="26"/>
       <c r="O137" s="18"/>
     </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="138" spans="1:15">
       <c r="A138" s="15"/>
       <c r="B138" s="16"/>
       <c r="C138" s="20"/>
@@ -7758,7 +8444,7 @@
       <c r="N138" s="26"/>
       <c r="O138" s="18"/>
     </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="139" spans="1:15">
       <c r="A139" s="15"/>
       <c r="B139" s="16"/>
       <c r="C139" s="20"/>
@@ -7775,7 +8461,7 @@
       <c r="N139" s="26"/>
       <c r="O139" s="18"/>
     </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="140" spans="1:15">
       <c r="A140" s="15"/>
       <c r="B140" s="16"/>
       <c r="C140" s="20"/>
@@ -7792,7 +8478,7 @@
       <c r="N140" s="26"/>
       <c r="O140" s="18"/>
     </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="141" spans="1:15">
       <c r="A141" s="15"/>
       <c r="B141" s="16"/>
       <c r="C141" s="20"/>
@@ -7809,7 +8495,7 @@
       <c r="N141" s="26"/>
       <c r="O141" s="18"/>
     </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="142" spans="1:15">
       <c r="A142" s="15"/>
       <c r="B142" s="16"/>
       <c r="C142" s="20"/>
@@ -7826,7 +8512,7 @@
       <c r="N142" s="26"/>
       <c r="O142" s="18"/>
     </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="143" spans="1:15">
       <c r="A143" s="15"/>
       <c r="B143" s="16"/>
       <c r="C143" s="20"/>
@@ -7843,7 +8529,7 @@
       <c r="N143" s="26"/>
       <c r="O143" s="18"/>
     </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="144" spans="1:15">
       <c r="A144" s="15"/>
       <c r="B144" s="16"/>
       <c r="C144" s="20"/>
@@ -7860,7 +8546,7 @@
       <c r="N144" s="26"/>
       <c r="O144" s="18"/>
     </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="145" spans="1:15">
       <c r="A145" s="15"/>
       <c r="B145" s="16"/>
       <c r="C145" s="20"/>
@@ -7877,7 +8563,7 @@
       <c r="N145" s="26"/>
       <c r="O145" s="18"/>
     </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="146" spans="1:15">
       <c r="A146" s="15"/>
       <c r="B146" s="16"/>
       <c r="C146" s="20"/>
@@ -7894,7 +8580,7 @@
       <c r="N146" s="26"/>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="147" spans="1:15">
       <c r="A147" s="15"/>
       <c r="B147" s="16"/>
       <c r="C147" s="20"/>
@@ -7911,7 +8597,7 @@
       <c r="N147" s="26"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="148" spans="1:15">
       <c r="A148" s="15"/>
       <c r="B148" s="16"/>
       <c r="C148" s="20"/>
@@ -7928,7 +8614,7 @@
       <c r="N148" s="26"/>
       <c r="O148" s="18"/>
     </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="149" spans="1:15">
       <c r="A149" s="15"/>
       <c r="B149" s="16"/>
       <c r="C149" s="20"/>
@@ -7945,7 +8631,7 @@
       <c r="N149" s="26"/>
       <c r="O149" s="18"/>
     </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="150" spans="1:15">
       <c r="A150" s="15"/>
       <c r="B150" s="16"/>
       <c r="C150" s="20"/>
@@ -7962,7 +8648,7 @@
       <c r="N150" s="26"/>
       <c r="O150" s="18"/>
     </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="151" spans="1:15">
       <c r="A151" s="15"/>
       <c r="B151" s="16"/>
       <c r="C151" s="20"/>
@@ -7979,7 +8665,7 @@
       <c r="N151" s="26"/>
       <c r="O151" s="18"/>
     </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="152" spans="1:15">
       <c r="A152" s="15"/>
       <c r="B152" s="16"/>
       <c r="C152" s="20"/>
@@ -7996,7 +8682,7 @@
       <c r="N152" s="26"/>
       <c r="O152" s="18"/>
     </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="153" spans="1:15">
       <c r="A153" s="15"/>
       <c r="B153" s="16"/>
       <c r="C153" s="20"/>
@@ -8013,7 +8699,7 @@
       <c r="N153" s="26"/>
       <c r="O153" s="18"/>
     </row>
-    <row r="154" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="154" spans="1:15">
       <c r="A154" s="15"/>
       <c r="B154" s="16"/>
       <c r="C154" s="20"/>
@@ -8030,7 +8716,7 @@
       <c r="N154" s="26"/>
       <c r="O154" s="18"/>
     </row>
-    <row r="155" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="155" spans="1:15">
       <c r="A155" s="15"/>
       <c r="B155" s="16"/>
       <c r="C155" s="20"/>
@@ -8047,7 +8733,7 @@
       <c r="N155" s="26"/>
       <c r="O155" s="18"/>
     </row>
-    <row r="156" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="156" spans="1:15">
       <c r="A156" s="15"/>
       <c r="B156" s="16"/>
       <c r="C156" s="20"/>
@@ -8064,7 +8750,7 @@
       <c r="N156" s="26"/>
       <c r="O156" s="18"/>
     </row>
-    <row r="157" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="157" spans="1:15">
       <c r="A157" s="15"/>
       <c r="B157" s="16"/>
       <c r="C157" s="20"/>
@@ -8081,7 +8767,7 @@
       <c r="N157" s="26"/>
       <c r="O157" s="18"/>
     </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="158" spans="1:15">
       <c r="A158" s="15"/>
       <c r="B158" s="16"/>
       <c r="C158" s="20"/>
@@ -8098,7 +8784,7 @@
       <c r="N158" s="26"/>
       <c r="O158" s="18"/>
     </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="159" spans="1:15">
       <c r="A159" s="15"/>
       <c r="B159" s="16"/>
       <c r="C159" s="20"/>
@@ -8115,7 +8801,7 @@
       <c r="N159" s="26"/>
       <c r="O159" s="18"/>
     </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="160" spans="1:15">
       <c r="A160" s="15"/>
       <c r="B160" s="16"/>
       <c r="C160" s="20"/>
@@ -8132,7 +8818,7 @@
       <c r="N160" s="26"/>
       <c r="O160" s="18"/>
     </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="161" spans="1:15">
       <c r="A161" s="15"/>
       <c r="B161" s="16"/>
       <c r="C161" s="20"/>
@@ -8149,7 +8835,7 @@
       <c r="N161" s="26"/>
       <c r="O161" s="18"/>
     </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="162" spans="1:15">
       <c r="A162" s="15"/>
       <c r="B162" s="16"/>
       <c r="C162" s="20"/>
@@ -8166,7 +8852,7 @@
       <c r="N162" s="26"/>
       <c r="O162" s="18"/>
     </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="163" spans="1:15">
       <c r="A163" s="15"/>
       <c r="B163" s="16"/>
       <c r="C163" s="20"/>
@@ -8183,7 +8869,7 @@
       <c r="N163" s="26"/>
       <c r="O163" s="18"/>
     </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="164" spans="1:15">
       <c r="A164" s="15"/>
       <c r="B164" s="16"/>
       <c r="C164" s="20"/>
@@ -8200,7 +8886,7 @@
       <c r="N164" s="26"/>
       <c r="O164" s="18"/>
     </row>
-    <row r="165" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="165" spans="1:15">
       <c r="A165" s="15"/>
       <c r="B165" s="16"/>
       <c r="C165" s="20"/>
@@ -8217,7 +8903,7 @@
       <c r="N165" s="26"/>
       <c r="O165" s="18"/>
     </row>
-    <row r="166" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="166" spans="1:15">
       <c r="A166" s="15"/>
       <c r="B166" s="16"/>
       <c r="C166" s="20"/>
@@ -8234,7 +8920,7 @@
       <c r="N166" s="26"/>
       <c r="O166" s="18"/>
     </row>
-    <row r="167" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="167" spans="1:15">
       <c r="A167" s="15"/>
       <c r="B167" s="16"/>
       <c r="C167" s="20"/>
@@ -8251,7 +8937,7 @@
       <c r="N167" s="26"/>
       <c r="O167" s="18"/>
     </row>
-    <row r="168" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="168" spans="1:15">
       <c r="A168" s="15"/>
       <c r="B168" s="16"/>
       <c r="C168" s="20"/>
@@ -8268,7 +8954,7 @@
       <c r="N168" s="26"/>
       <c r="O168" s="18"/>
     </row>
-    <row r="169" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="169" spans="1:15">
       <c r="A169" s="15"/>
       <c r="B169" s="16"/>
       <c r="C169" s="20"/>
@@ -8285,7 +8971,7 @@
       <c r="N169" s="26"/>
       <c r="O169" s="18"/>
     </row>
-    <row r="170" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="170" spans="1:15">
       <c r="A170" s="15"/>
       <c r="B170" s="16"/>
       <c r="C170" s="20"/>
@@ -8302,7 +8988,7 @@
       <c r="N170" s="26"/>
       <c r="O170" s="18"/>
     </row>
-    <row r="171" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="171" spans="1:15">
       <c r="A171" s="15"/>
       <c r="B171" s="16"/>
       <c r="C171" s="20"/>
@@ -8319,7 +9005,7 @@
       <c r="N171" s="26"/>
       <c r="O171" s="18"/>
     </row>
-    <row r="172" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="172" spans="1:15">
       <c r="A172" s="15"/>
       <c r="B172" s="16"/>
       <c r="C172" s="20"/>
@@ -8336,7 +9022,7 @@
       <c r="N172" s="26"/>
       <c r="O172" s="18"/>
     </row>
-    <row r="173" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="173" spans="1:15">
       <c r="A173" s="15"/>
       <c r="B173" s="16"/>
       <c r="C173" s="20"/>
@@ -8353,7 +9039,7 @@
       <c r="N173" s="26"/>
       <c r="O173" s="18"/>
     </row>
-    <row r="174" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="174" spans="1:15">
       <c r="A174" s="15"/>
       <c r="B174" s="16"/>
       <c r="C174" s="20"/>
@@ -8370,7 +9056,7 @@
       <c r="N174" s="26"/>
       <c r="O174" s="18"/>
     </row>
-    <row r="175" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="175" spans="1:15">
       <c r="A175" s="15"/>
       <c r="B175" s="16"/>
       <c r="C175" s="20"/>
@@ -8387,7 +9073,7 @@
       <c r="N175" s="26"/>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="176" spans="1:15">
       <c r="A176" s="15"/>
       <c r="B176" s="16"/>
       <c r="C176" s="20"/>
@@ -8404,7 +9090,7 @@
       <c r="N176" s="26"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="177" spans="1:15">
       <c r="A177" s="15"/>
       <c r="B177" s="16"/>
       <c r="C177" s="20"/>
@@ -8421,7 +9107,7 @@
       <c r="N177" s="26"/>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="178" spans="1:15">
       <c r="A178" s="15"/>
       <c r="B178" s="16"/>
       <c r="C178" s="20"/>
@@ -8438,7 +9124,7 @@
       <c r="N178" s="26"/>
       <c r="O178" s="18"/>
     </row>
-    <row r="179" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="179" spans="1:15">
       <c r="A179" s="15"/>
       <c r="B179" s="16"/>
       <c r="C179" s="20"/>
@@ -8455,7 +9141,7 @@
       <c r="N179" s="26"/>
       <c r="O179" s="18"/>
     </row>
-    <row r="180" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="180" spans="1:15">
       <c r="A180" s="15"/>
       <c r="B180" s="16"/>
       <c r="C180" s="20"/>
@@ -8472,7 +9158,7 @@
       <c r="N180" s="26"/>
       <c r="O180" s="18"/>
     </row>
-    <row r="181" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="181" spans="1:15">
       <c r="A181" s="15"/>
       <c r="B181" s="16"/>
       <c r="C181" s="20"/>
@@ -8489,7 +9175,7 @@
       <c r="N181" s="26"/>
       <c r="O181" s="18"/>
     </row>
-    <row r="182" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="182" spans="1:15">
       <c r="A182" s="15"/>
       <c r="B182" s="16"/>
       <c r="C182" s="20"/>
@@ -8506,7 +9192,7 @@
       <c r="N182" s="26"/>
       <c r="O182" s="18"/>
     </row>
-    <row r="183" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="183" spans="1:15">
       <c r="A183" s="15"/>
       <c r="B183" s="16"/>
       <c r="C183" s="20"/>
@@ -8523,7 +9209,7 @@
       <c r="N183" s="26"/>
       <c r="O183" s="18"/>
     </row>
-    <row r="184" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="184" spans="1:15">
       <c r="A184" s="15"/>
       <c r="B184" s="16"/>
       <c r="C184" s="20"/>
@@ -8540,7 +9226,7 @@
       <c r="N184" s="26"/>
       <c r="O184" s="18"/>
     </row>
-    <row r="185" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="185" spans="1:15">
       <c r="A185" s="15"/>
       <c r="B185" s="16"/>
       <c r="C185" s="20"/>
@@ -8557,7 +9243,7 @@
       <c r="N185" s="26"/>
       <c r="O185" s="18"/>
     </row>
-    <row r="186" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="186" spans="1:15">
       <c r="A186" s="15"/>
       <c r="B186" s="16"/>
       <c r="C186" s="20"/>
@@ -8574,7 +9260,7 @@
       <c r="N186" s="26"/>
       <c r="O186" s="18"/>
     </row>
-    <row r="187" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="187" spans="1:15">
       <c r="A187" s="15"/>
       <c r="B187" s="16"/>
       <c r="C187" s="20"/>
@@ -8591,7 +9277,7 @@
       <c r="N187" s="26"/>
       <c r="O187" s="18"/>
     </row>
-    <row r="188" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="188" spans="1:15">
       <c r="A188" s="15"/>
       <c r="B188" s="16"/>
       <c r="C188" s="20"/>
@@ -8608,7 +9294,7 @@
       <c r="N188" s="26"/>
       <c r="O188" s="18"/>
     </row>
-    <row r="189" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="189" spans="1:15">
       <c r="A189" s="15"/>
       <c r="B189" s="16"/>
       <c r="C189" s="20"/>
@@ -8625,7 +9311,7 @@
       <c r="N189" s="26"/>
       <c r="O189" s="18"/>
     </row>
-    <row r="190" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="190" spans="1:15">
       <c r="A190" s="15"/>
       <c r="B190" s="16"/>
       <c r="C190" s="20"/>
@@ -8642,7 +9328,7 @@
       <c r="N190" s="26"/>
       <c r="O190" s="18"/>
     </row>
-    <row r="191" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="191" spans="1:15">
       <c r="A191" s="15"/>
       <c r="B191" s="16"/>
       <c r="C191" s="20"/>
@@ -8659,7 +9345,7 @@
       <c r="N191" s="26"/>
       <c r="O191" s="18"/>
     </row>
-    <row r="192" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="192" spans="1:15">
       <c r="A192" s="15"/>
       <c r="B192" s="16"/>
       <c r="C192" s="20"/>
@@ -8676,7 +9362,7 @@
       <c r="N192" s="26"/>
       <c r="O192" s="18"/>
     </row>
-    <row r="193" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="193" spans="1:15">
       <c r="A193" s="15"/>
       <c r="B193" s="16"/>
       <c r="C193" s="20"/>
@@ -8693,7 +9379,7 @@
       <c r="N193" s="26"/>
       <c r="O193" s="18"/>
     </row>
-    <row r="194" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="194" spans="1:15">
       <c r="A194" s="15"/>
       <c r="B194" s="16"/>
       <c r="C194" s="20"/>
@@ -8710,7 +9396,7 @@
       <c r="N194" s="26"/>
       <c r="O194" s="18"/>
     </row>
-    <row r="195" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="195" spans="1:15">
       <c r="A195" s="15"/>
       <c r="B195" s="16"/>
       <c r="C195" s="20"/>
@@ -8727,7 +9413,7 @@
       <c r="N195" s="26"/>
       <c r="O195" s="18"/>
     </row>
-    <row r="196" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="196" spans="1:15">
       <c r="A196" s="15"/>
       <c r="B196" s="16"/>
       <c r="C196" s="20"/>
@@ -8744,7 +9430,7 @@
       <c r="N196" s="26"/>
       <c r="O196" s="18"/>
     </row>
-    <row r="197" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="197" spans="1:15">
       <c r="A197" s="15"/>
       <c r="B197" s="16"/>
       <c r="C197" s="20"/>
@@ -8761,7 +9447,7 @@
       <c r="N197" s="26"/>
       <c r="O197" s="18"/>
     </row>
-    <row r="198" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="198" spans="1:15">
       <c r="A198" s="15"/>
       <c r="B198" s="16"/>
       <c r="C198" s="20"/>
@@ -8778,7 +9464,7 @@
       <c r="N198" s="26"/>
       <c r="O198" s="18"/>
     </row>
-    <row r="199" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="199" spans="1:15">
       <c r="A199" s="15"/>
       <c r="B199" s="16"/>
       <c r="C199" s="20"/>
@@ -8795,7 +9481,7 @@
       <c r="N199" s="26"/>
       <c r="O199" s="18"/>
     </row>
-    <row r="200" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="200" spans="1:15">
       <c r="A200" s="15"/>
       <c r="B200" s="16"/>
       <c r="C200" s="20"/>
@@ -8812,7 +9498,7 @@
       <c r="N200" s="26"/>
       <c r="O200" s="18"/>
     </row>
-    <row r="201" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="201" spans="1:15">
       <c r="A201" s="15"/>
       <c r="B201" s="16"/>
       <c r="C201" s="20"/>
@@ -8829,7 +9515,7 @@
       <c r="N201" s="26"/>
       <c r="O201" s="18"/>
     </row>
-    <row r="202" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="202" spans="1:15">
       <c r="A202" s="15"/>
       <c r="B202" s="16"/>
       <c r="C202" s="20"/>
@@ -8846,7 +9532,7 @@
       <c r="N202" s="26"/>
       <c r="O202" s="18"/>
     </row>
-    <row r="203" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="203" spans="1:15">
       <c r="A203" s="15"/>
       <c r="B203" s="16"/>
       <c r="C203" s="20"/>
@@ -8863,7 +9549,7 @@
       <c r="N203" s="26"/>
       <c r="O203" s="18"/>
     </row>
-    <row r="204" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="204" spans="1:15">
       <c r="A204" s="15"/>
       <c r="B204" s="16"/>
       <c r="C204" s="20"/>
@@ -8880,7 +9566,7 @@
       <c r="N204" s="26"/>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="205" spans="1:15">
       <c r="A205" s="15"/>
       <c r="B205" s="16"/>
       <c r="C205" s="20"/>
@@ -8897,7 +9583,7 @@
       <c r="N205" s="26"/>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="206" spans="1:15">
       <c r="A206" s="15"/>
       <c r="B206" s="16"/>
       <c r="C206" s="20"/>
@@ -8914,7 +9600,7 @@
       <c r="N206" s="26"/>
       <c r="O206" s="18"/>
     </row>
-    <row r="207" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="207" spans="1:15">
       <c r="A207" s="15"/>
       <c r="B207" s="16"/>
       <c r="C207" s="20"/>
@@ -8931,7 +9617,7 @@
       <c r="N207" s="26"/>
       <c r="O207" s="18"/>
     </row>
-    <row r="208" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="208" spans="1:15">
       <c r="A208" s="15"/>
       <c r="B208" s="16"/>
       <c r="C208" s="20"/>
@@ -8948,7 +9634,7 @@
       <c r="N208" s="26"/>
       <c r="O208" s="18"/>
     </row>
-    <row r="209" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="209" spans="1:15">
       <c r="A209" s="15"/>
       <c r="B209" s="16"/>
       <c r="C209" s="20"/>
@@ -8965,7 +9651,7 @@
       <c r="N209" s="26"/>
       <c r="O209" s="18"/>
     </row>
-    <row r="210" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="210" spans="1:15">
       <c r="A210" s="15"/>
       <c r="B210" s="16"/>
       <c r="C210" s="20"/>
@@ -8982,7 +9668,7 @@
       <c r="N210" s="26"/>
       <c r="O210" s="18"/>
     </row>
-    <row r="211" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="211" spans="1:15">
       <c r="A211" s="15"/>
       <c r="B211" s="16"/>
       <c r="C211" s="20"/>
@@ -8999,7 +9685,7 @@
       <c r="N211" s="26"/>
       <c r="O211" s="18"/>
     </row>
-    <row r="212" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="212" spans="1:15">
       <c r="A212" s="15"/>
       <c r="B212" s="16"/>
       <c r="C212" s="20"/>
@@ -9016,7 +9702,7 @@
       <c r="N212" s="26"/>
       <c r="O212" s="18"/>
     </row>
-    <row r="213" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="213" spans="1:15">
       <c r="A213" s="15"/>
       <c r="B213" s="16"/>
       <c r="C213" s="20"/>
@@ -9033,7 +9719,7 @@
       <c r="N213" s="26"/>
       <c r="O213" s="18"/>
     </row>
-    <row r="214" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="214" spans="1:15">
       <c r="A214" s="15"/>
       <c r="B214" s="16"/>
       <c r="C214" s="20"/>
@@ -9050,7 +9736,7 @@
       <c r="N214" s="26"/>
       <c r="O214" s="18"/>
     </row>
-    <row r="215" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="215" spans="1:15">
       <c r="A215" s="15"/>
       <c r="B215" s="16"/>
       <c r="C215" s="20"/>
@@ -9067,7 +9753,7 @@
       <c r="N215" s="26"/>
       <c r="O215" s="18"/>
     </row>
-    <row r="216" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="216" spans="1:15">
       <c r="A216" s="15"/>
       <c r="B216" s="16"/>
       <c r="C216" s="20"/>
@@ -9084,7 +9770,7 @@
       <c r="N216" s="26"/>
       <c r="O216" s="18"/>
     </row>
-    <row r="217" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="217" spans="1:15">
       <c r="A217" s="15"/>
       <c r="B217" s="16"/>
       <c r="C217" s="20"/>
@@ -9101,7 +9787,7 @@
       <c r="N217" s="26"/>
       <c r="O217" s="18"/>
     </row>
-    <row r="218" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="218" spans="1:15">
       <c r="A218" s="15"/>
       <c r="B218" s="16"/>
       <c r="C218" s="20"/>
@@ -9118,7 +9804,7 @@
       <c r="N218" s="26"/>
       <c r="O218" s="18"/>
     </row>
-    <row r="219" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="219" spans="1:15">
       <c r="A219" s="15"/>
       <c r="B219" s="16"/>
       <c r="C219" s="20"/>
@@ -9135,7 +9821,7 @@
       <c r="N219" s="26"/>
       <c r="O219" s="18"/>
     </row>
-    <row r="220" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="220" spans="1:15">
       <c r="A220" s="15"/>
       <c r="B220" s="16"/>
       <c r="C220" s="20"/>
@@ -9152,7 +9838,7 @@
       <c r="N220" s="26"/>
       <c r="O220" s="18"/>
     </row>
-    <row r="221" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="221" spans="1:15">
       <c r="A221" s="15"/>
       <c r="B221" s="16"/>
       <c r="C221" s="20"/>
@@ -9169,7 +9855,7 @@
       <c r="N221" s="26"/>
       <c r="O221" s="18"/>
     </row>
-    <row r="222" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="222" spans="1:15">
       <c r="A222" s="15"/>
       <c r="B222" s="16"/>
       <c r="C222" s="20"/>
@@ -9186,7 +9872,7 @@
       <c r="N222" s="26"/>
       <c r="O222" s="18"/>
     </row>
-    <row r="223" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="223" spans="1:15">
       <c r="A223" s="15"/>
       <c r="B223" s="16"/>
       <c r="C223" s="20"/>
@@ -9203,7 +9889,7 @@
       <c r="N223" s="26"/>
       <c r="O223" s="18"/>
     </row>
-    <row r="224" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="224" spans="1:15">
       <c r="A224" s="15"/>
       <c r="B224" s="16"/>
       <c r="C224" s="20"/>
@@ -9220,7 +9906,7 @@
       <c r="N224" s="26"/>
       <c r="O224" s="18"/>
     </row>
-    <row r="225" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="225" spans="1:15">
       <c r="A225" s="15"/>
       <c r="B225" s="16"/>
       <c r="C225" s="20"/>
@@ -9237,7 +9923,7 @@
       <c r="N225" s="26"/>
       <c r="O225" s="18"/>
     </row>
-    <row r="226" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="226" spans="1:15">
       <c r="A226" s="15"/>
       <c r="B226" s="16"/>
       <c r="C226" s="20"/>
@@ -9254,7 +9940,7 @@
       <c r="N226" s="26"/>
       <c r="O226" s="18"/>
     </row>
-    <row r="227" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="227" spans="1:15">
       <c r="A227" s="15"/>
       <c r="B227" s="16"/>
       <c r="C227" s="20"/>
@@ -9271,7 +9957,7 @@
       <c r="N227" s="26"/>
       <c r="O227" s="18"/>
     </row>
-    <row r="228" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="228" spans="1:15">
       <c r="A228" s="15"/>
       <c r="B228" s="16"/>
       <c r="C228" s="20"/>
@@ -9288,7 +9974,7 @@
       <c r="N228" s="26"/>
       <c r="O228" s="18"/>
     </row>
-    <row r="229" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="229" spans="1:15">
       <c r="A229" s="15"/>
       <c r="B229" s="16"/>
       <c r="C229" s="20"/>
@@ -9305,7 +9991,7 @@
       <c r="N229" s="26"/>
       <c r="O229" s="18"/>
     </row>
-    <row r="230" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="230" spans="1:15">
       <c r="A230" s="15"/>
       <c r="B230" s="16"/>
       <c r="C230" s="20"/>
@@ -9322,7 +10008,7 @@
       <c r="N230" s="26"/>
       <c r="O230" s="18"/>
     </row>
-    <row r="231" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="231" spans="1:15">
       <c r="A231" s="15"/>
       <c r="B231" s="16"/>
       <c r="C231" s="20"/>
@@ -9339,7 +10025,7 @@
       <c r="N231" s="26"/>
       <c r="O231" s="18"/>
     </row>
-    <row r="232" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="232" spans="1:15">
       <c r="A232" s="15"/>
       <c r="B232" s="16"/>
       <c r="C232" s="20"/>
@@ -9356,7 +10042,7 @@
       <c r="N232" s="26"/>
       <c r="O232" s="18"/>
     </row>
-    <row r="233" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="233" spans="1:15">
       <c r="A233" s="15"/>
       <c r="B233" s="16"/>
       <c r="C233" s="20"/>
@@ -9373,7 +10059,7 @@
       <c r="N233" s="26"/>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="234" spans="1:15">
       <c r="A234" s="15"/>
       <c r="B234" s="16"/>
       <c r="C234" s="20"/>
@@ -9390,7 +10076,7 @@
       <c r="N234" s="26"/>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="235" spans="1:15">
       <c r="A235" s="15"/>
       <c r="B235" s="16"/>
       <c r="C235" s="20"/>
@@ -9407,7 +10093,7 @@
       <c r="N235" s="26"/>
       <c r="O235" s="18"/>
     </row>
-    <row r="236" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="236" spans="1:15">
       <c r="A236" s="15"/>
       <c r="B236" s="16"/>
       <c r="C236" s="20"/>
@@ -9424,7 +10110,7 @@
       <c r="N236" s="26"/>
       <c r="O236" s="18"/>
     </row>
-    <row r="237" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="237" spans="1:15">
       <c r="A237" s="15"/>
       <c r="B237" s="16"/>
       <c r="C237" s="20"/>
@@ -9441,7 +10127,7 @@
       <c r="N237" s="26"/>
       <c r="O237" s="18"/>
     </row>
-    <row r="238" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="238" spans="1:15">
       <c r="A238" s="15"/>
       <c r="B238" s="16"/>
       <c r="C238" s="20"/>
@@ -9458,7 +10144,7 @@
       <c r="N238" s="26"/>
       <c r="O238" s="18"/>
     </row>
-    <row r="239" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="239" spans="1:15">
       <c r="A239" s="15"/>
       <c r="B239" s="16"/>
       <c r="C239" s="20"/>
@@ -9475,7 +10161,7 @@
       <c r="N239" s="26"/>
       <c r="O239" s="18"/>
     </row>
-    <row r="240" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="240" spans="1:15">
       <c r="A240" s="15"/>
       <c r="B240" s="16"/>
       <c r="C240" s="20"/>
@@ -9492,7 +10178,7 @@
       <c r="N240" s="26"/>
       <c r="O240" s="18"/>
     </row>
-    <row r="241" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="241" spans="1:15">
       <c r="A241" s="15"/>
       <c r="B241" s="16"/>
       <c r="C241" s="20"/>
@@ -9509,7 +10195,7 @@
       <c r="N241" s="26"/>
       <c r="O241" s="18"/>
     </row>
-    <row r="242" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="242" spans="1:15">
       <c r="A242" s="15"/>
       <c r="B242" s="16"/>
       <c r="C242" s="20"/>
@@ -9526,7 +10212,7 @@
       <c r="N242" s="26"/>
       <c r="O242" s="18"/>
     </row>
-    <row r="243" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="243" spans="1:15">
       <c r="A243" s="15"/>
       <c r="B243" s="16"/>
       <c r="C243" s="20"/>
@@ -9543,7 +10229,7 @@
       <c r="N243" s="26"/>
       <c r="O243" s="18"/>
     </row>
-    <row r="244" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="244" spans="1:15">
       <c r="A244" s="15"/>
       <c r="B244" s="16"/>
       <c r="C244" s="20"/>
@@ -9560,7 +10246,7 @@
       <c r="N244" s="26"/>
       <c r="O244" s="18"/>
     </row>
-    <row r="245" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="245" spans="1:15">
       <c r="A245" s="15"/>
       <c r="B245" s="16"/>
       <c r="C245" s="20"/>
@@ -9577,7 +10263,7 @@
       <c r="N245" s="26"/>
       <c r="O245" s="18"/>
     </row>
-    <row r="246" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="246" spans="1:15">
       <c r="A246" s="15"/>
       <c r="B246" s="16"/>
       <c r="C246" s="20"/>
@@ -9594,7 +10280,7 @@
       <c r="N246" s="26"/>
       <c r="O246" s="18"/>
     </row>
-    <row r="247" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="247" spans="1:15">
       <c r="A247" s="15"/>
       <c r="B247" s="16"/>
       <c r="C247" s="20"/>
@@ -9611,7 +10297,7 @@
       <c r="N247" s="26"/>
       <c r="O247" s="18"/>
     </row>
-    <row r="248" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="248" spans="1:15">
       <c r="A248" s="15"/>
       <c r="B248" s="16"/>
       <c r="C248" s="20"/>
@@ -9628,7 +10314,7 @@
       <c r="N248" s="26"/>
       <c r="O248" s="18"/>
     </row>
-    <row r="249" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="249" spans="1:15">
       <c r="A249" s="15"/>
       <c r="B249" s="16"/>
       <c r="C249" s="20"/>
@@ -9645,7 +10331,7 @@
       <c r="N249" s="26"/>
       <c r="O249" s="18"/>
     </row>
-    <row r="250" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="250" spans="1:15">
       <c r="A250" s="15"/>
       <c r="B250" s="16"/>
       <c r="C250" s="20"/>
@@ -9662,7 +10348,7 @@
       <c r="N250" s="26"/>
       <c r="O250" s="18"/>
     </row>
-    <row r="251" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="251" spans="1:15">
       <c r="A251" s="15"/>
       <c r="B251" s="16"/>
       <c r="C251" s="20"/>
@@ -9679,7 +10365,7 @@
       <c r="N251" s="26"/>
       <c r="O251" s="18"/>
     </row>
-    <row r="252" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="252" spans="1:15">
       <c r="A252" s="15"/>
       <c r="B252" s="16"/>
       <c r="C252" s="20"/>
@@ -9696,7 +10382,7 @@
       <c r="N252" s="26"/>
       <c r="O252" s="18"/>
     </row>
-    <row r="253" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="253" spans="1:15">
       <c r="A253" s="15"/>
       <c r="B253" s="16"/>
       <c r="C253" s="20"/>
@@ -9713,7 +10399,7 @@
       <c r="N253" s="26"/>
       <c r="O253" s="18"/>
     </row>
-    <row r="254" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="254" spans="1:15">
       <c r="A254" s="15"/>
       <c r="B254" s="16"/>
       <c r="C254" s="20"/>
@@ -9730,7 +10416,7 @@
       <c r="N254" s="26"/>
       <c r="O254" s="18"/>
     </row>
-    <row r="255" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="255" spans="1:15">
       <c r="A255" s="15"/>
       <c r="B255" s="16"/>
       <c r="C255" s="20"/>
@@ -9747,7 +10433,7 @@
       <c r="N255" s="26"/>
       <c r="O255" s="18"/>
     </row>
-    <row r="256" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="256" spans="1:15">
       <c r="A256" s="15"/>
       <c r="B256" s="16"/>
       <c r="C256" s="20"/>
@@ -9764,7 +10450,7 @@
       <c r="N256" s="26"/>
       <c r="O256" s="18"/>
     </row>
-    <row r="257" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="257" spans="1:15">
       <c r="A257" s="15"/>
       <c r="B257" s="16"/>
       <c r="C257" s="20"/>
@@ -9781,7 +10467,7 @@
       <c r="N257" s="26"/>
       <c r="O257" s="18"/>
     </row>
-    <row r="258" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="258" spans="1:15">
       <c r="A258" s="15"/>
       <c r="B258" s="16"/>
       <c r="C258" s="20"/>
@@ -9798,7 +10484,7 @@
       <c r="N258" s="26"/>
       <c r="O258" s="18"/>
     </row>
-    <row r="259" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="259" spans="1:15">
       <c r="A259" s="15"/>
       <c r="B259" s="16"/>
       <c r="C259" s="20"/>
@@ -9815,7 +10501,7 @@
       <c r="N259" s="26"/>
       <c r="O259" s="18"/>
     </row>
-    <row r="260" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="260" spans="1:15">
       <c r="A260" s="15"/>
       <c r="B260" s="16"/>
       <c r="C260" s="20"/>
@@ -9832,7 +10518,7 @@
       <c r="N260" s="26"/>
       <c r="O260" s="18"/>
     </row>
-    <row r="261" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="261" spans="1:15">
       <c r="A261" s="15"/>
       <c r="B261" s="16"/>
       <c r="C261" s="20"/>
@@ -9849,7 +10535,7 @@
       <c r="N261" s="26"/>
       <c r="O261" s="18"/>
     </row>
-    <row r="262" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="262" spans="1:15">
       <c r="A262" s="15"/>
       <c r="B262" s="16"/>
       <c r="C262" s="20"/>
@@ -9866,7 +10552,7 @@
       <c r="N262" s="26"/>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="263" spans="1:15">
       <c r="A263" s="15"/>
       <c r="B263" s="16"/>
       <c r="C263" s="20"/>
@@ -9883,7 +10569,7 @@
       <c r="N263" s="26"/>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="264" spans="1:15">
       <c r="A264" s="15"/>
       <c r="B264" s="16"/>
       <c r="C264" s="20"/>
@@ -9900,7 +10586,7 @@
       <c r="N264" s="26"/>
       <c r="O264" s="18"/>
     </row>
-    <row r="265" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="265" spans="1:15">
       <c r="A265" s="15"/>
       <c r="B265" s="16"/>
       <c r="C265" s="20"/>
@@ -9917,7 +10603,7 @@
       <c r="N265" s="26"/>
       <c r="O265" s="18"/>
     </row>
-    <row r="266" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="266" spans="1:15">
       <c r="A266" s="15"/>
       <c r="B266" s="16"/>
       <c r="C266" s="20"/>
@@ -9934,7 +10620,7 @@
       <c r="N266" s="26"/>
       <c r="O266" s="18"/>
     </row>
-    <row r="267" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="267" spans="1:15">
       <c r="A267" s="15"/>
       <c r="B267" s="16"/>
       <c r="C267" s="20"/>
@@ -9951,7 +10637,7 @@
       <c r="N267" s="26"/>
       <c r="O267" s="18"/>
     </row>
-    <row r="268" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="268" spans="1:15">
       <c r="A268" s="15"/>
       <c r="B268" s="16"/>
       <c r="C268" s="20"/>
@@ -9968,7 +10654,7 @@
       <c r="N268" s="26"/>
       <c r="O268" s="18"/>
     </row>
-    <row r="269" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="269" spans="1:15">
       <c r="A269" s="15"/>
       <c r="B269" s="16"/>
       <c r="C269" s="20"/>
@@ -9985,7 +10671,7 @@
       <c r="N269" s="26"/>
       <c r="O269" s="18"/>
     </row>
-    <row r="270" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="270" spans="1:15">
       <c r="A270" s="15"/>
       <c r="B270" s="16"/>
       <c r="C270" s="20"/>
@@ -10002,7 +10688,7 @@
       <c r="N270" s="26"/>
       <c r="O270" s="18"/>
     </row>
-    <row r="271" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="271" spans="1:15">
       <c r="A271" s="15"/>
       <c r="B271" s="16"/>
       <c r="C271" s="20"/>
@@ -10019,7 +10705,7 @@
       <c r="N271" s="26"/>
       <c r="O271" s="18"/>
     </row>
-    <row r="272" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="272" spans="1:15">
       <c r="A272" s="15"/>
       <c r="B272" s="16"/>
       <c r="C272" s="20"/>
@@ -10036,7 +10722,7 @@
       <c r="N272" s="26"/>
       <c r="O272" s="18"/>
     </row>
-    <row r="273" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="273" spans="1:15">
       <c r="A273" s="15"/>
       <c r="B273" s="16"/>
       <c r="C273" s="20"/>
@@ -10053,7 +10739,7 @@
       <c r="N273" s="26"/>
       <c r="O273" s="18"/>
     </row>
-    <row r="274" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="274" spans="1:15">
       <c r="A274" s="15"/>
       <c r="B274" s="16"/>
       <c r="C274" s="20"/>
@@ -10070,7 +10756,7 @@
       <c r="N274" s="26"/>
       <c r="O274" s="18"/>
     </row>
-    <row r="275" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="275" spans="1:15">
       <c r="A275" s="15"/>
       <c r="B275" s="16"/>
       <c r="C275" s="20"/>
@@ -10087,7 +10773,7 @@
       <c r="N275" s="26"/>
       <c r="O275" s="18"/>
     </row>
-    <row r="276" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="276" spans="1:15">
       <c r="A276" s="15"/>
       <c r="B276" s="16"/>
       <c r="C276" s="20"/>
@@ -10104,7 +10790,7 @@
       <c r="N276" s="26"/>
       <c r="O276" s="18"/>
     </row>
-    <row r="277" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="277" spans="1:15">
       <c r="A277" s="15"/>
       <c r="B277" s="16"/>
       <c r="C277" s="20"/>
@@ -10121,7 +10807,7 @@
       <c r="N277" s="26"/>
       <c r="O277" s="18"/>
     </row>
-    <row r="278" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="278" spans="1:15">
       <c r="A278" s="15"/>
       <c r="B278" s="16"/>
       <c r="C278" s="20"/>
@@ -10138,7 +10824,7 @@
       <c r="N278" s="26"/>
       <c r="O278" s="18"/>
     </row>
-    <row r="279" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="279" spans="1:15">
       <c r="A279" s="15"/>
       <c r="B279" s="16"/>
       <c r="C279" s="20"/>
@@ -10155,7 +10841,7 @@
       <c r="N279" s="26"/>
       <c r="O279" s="18"/>
     </row>
-    <row r="280" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="280" spans="1:15">
       <c r="A280" s="15"/>
       <c r="B280" s="16"/>
       <c r="C280" s="20"/>
@@ -10172,7 +10858,7 @@
       <c r="N280" s="26"/>
       <c r="O280" s="18"/>
     </row>
-    <row r="281" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="281" spans="1:15">
       <c r="A281" s="15"/>
       <c r="B281" s="16"/>
       <c r="C281" s="20"/>
@@ -10189,7 +10875,7 @@
       <c r="N281" s="26"/>
       <c r="O281" s="18"/>
     </row>
-    <row r="282" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="282" spans="1:15">
       <c r="A282" s="15"/>
       <c r="B282" s="16"/>
       <c r="C282" s="20"/>
@@ -10206,7 +10892,7 @@
       <c r="N282" s="26"/>
       <c r="O282" s="18"/>
     </row>
-    <row r="283" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="283" spans="1:15">
       <c r="A283" s="15"/>
       <c r="B283" s="16"/>
       <c r="C283" s="20"/>
@@ -10223,7 +10909,7 @@
       <c r="N283" s="26"/>
       <c r="O283" s="18"/>
     </row>
-    <row r="284" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="284" spans="1:15">
       <c r="A284" s="15"/>
       <c r="B284" s="16"/>
       <c r="C284" s="20"/>
@@ -10240,7 +10926,7 @@
       <c r="N284" s="26"/>
       <c r="O284" s="18"/>
     </row>
-    <row r="285" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="285" spans="1:15">
       <c r="A285" s="15"/>
       <c r="B285" s="16"/>
       <c r="C285" s="20"/>
@@ -10257,7 +10943,7 @@
       <c r="N285" s="26"/>
       <c r="O285" s="18"/>
     </row>
-    <row r="286" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="286" spans="1:15">
       <c r="A286" s="15"/>
       <c r="B286" s="16"/>
       <c r="C286" s="20"/>
@@ -10274,7 +10960,7 @@
       <c r="N286" s="26"/>
       <c r="O286" s="18"/>
     </row>
-    <row r="287" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="287" spans="1:15">
       <c r="A287" s="15"/>
       <c r="B287" s="16"/>
       <c r="C287" s="20"/>
@@ -10291,7 +10977,7 @@
       <c r="N287" s="26"/>
       <c r="O287" s="18"/>
     </row>
-    <row r="288" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="288" spans="1:15">
       <c r="A288" s="15"/>
       <c r="B288" s="16"/>
       <c r="C288" s="20"/>
@@ -10308,7 +10994,7 @@
       <c r="N288" s="26"/>
       <c r="O288" s="18"/>
     </row>
-    <row r="289" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="289" spans="1:15">
       <c r="A289" s="15"/>
       <c r="B289" s="16"/>
       <c r="C289" s="20"/>
@@ -10325,7 +11011,7 @@
       <c r="N289" s="26"/>
       <c r="O289" s="18"/>
     </row>
-    <row r="290" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="290" spans="1:15">
       <c r="A290" s="15"/>
       <c r="B290" s="16"/>
       <c r="C290" s="20"/>
@@ -10342,7 +11028,7 @@
       <c r="N290" s="26"/>
       <c r="O290" s="18"/>
     </row>
-    <row r="291" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="291" spans="1:15">
       <c r="A291" s="15"/>
       <c r="B291" s="16"/>
       <c r="C291" s="20"/>
@@ -10359,7 +11045,7 @@
       <c r="N291" s="26"/>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="292" spans="1:15">
       <c r="A292" s="15"/>
       <c r="B292" s="16"/>
       <c r="C292" s="20"/>
@@ -10376,7 +11062,7 @@
       <c r="N292" s="26"/>
       <c r="O292" s="18"/>
     </row>
-    <row r="293" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="293" spans="1:15">
       <c r="A293" s="15"/>
       <c r="B293" s="16"/>
       <c r="C293" s="20"/>
@@ -10393,7 +11079,7 @@
       <c r="N293" s="26"/>
       <c r="O293" s="18"/>
     </row>
-    <row r="294" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="294" spans="1:15">
       <c r="A294" s="15"/>
       <c r="B294" s="16"/>
       <c r="C294" s="20"/>
@@ -10410,7 +11096,7 @@
       <c r="N294" s="26"/>
       <c r="O294" s="18"/>
     </row>
-    <row r="295" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="295" spans="1:15">
       <c r="A295" s="15"/>
       <c r="B295" s="16"/>
       <c r="C295" s="20"/>
@@ -10427,7 +11113,7 @@
       <c r="N295" s="26"/>
       <c r="O295" s="18"/>
     </row>
-    <row r="296" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="296" spans="1:15">
       <c r="A296" s="15"/>
       <c r="B296" s="16"/>
       <c r="C296" s="20"/>
@@ -10444,7 +11130,7 @@
       <c r="N296" s="26"/>
       <c r="O296" s="18"/>
     </row>
-    <row r="297" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="297" spans="1:15">
       <c r="A297" s="15"/>
       <c r="B297" s="16"/>
       <c r="C297" s="20"/>
@@ -10461,7 +11147,7 @@
       <c r="N297" s="26"/>
       <c r="O297" s="18"/>
     </row>
-    <row r="298" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="298" spans="1:15">
       <c r="A298" s="15"/>
       <c r="B298" s="16"/>
       <c r="C298" s="20"/>
@@ -10479,7 +11165,7 @@
       <c r="O298" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10487,36 +11173,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N99:N298">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N99,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N99,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N299:N1048576 N3:N98">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C298">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C298" type="list">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D298">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D298" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>